--- a/dist/document/dest/2020/10/doctors/206.xlsx
+++ b/dist/document/dest/2020/10/doctors/206.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>114000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>344</v>
       </c>
-      <c r="C3" s="1">
-        <v>2838000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1">
-        <v>385000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>49</v>
       </c>
-      <c r="C5" s="1">
-        <v>6933500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>42</v>
       </c>
-      <c r="C6" s="1">
-        <v>411180</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>57900</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>143000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>68</v>
       </c>
-      <c r="C9" s="1">
-        <v>897600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>42550</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
-        <v>51750</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>4953</v>
       </c>
-      <c r="C12" s="1">
-        <v>32144970</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <v>313500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>2409</v>
       </c>
-      <c r="C14" s="1">
-        <v>47698200</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
-        <v>26450</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>140</v>
       </c>
-      <c r="C16" s="1">
-        <v>1078000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>149600</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>2106</v>
       </c>
-      <c r="C18" s="1">
-        <v>34054020</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>27</v>
       </c>
-      <c r="C19" s="1">
-        <v>121770</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>38100</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>2921</v>
       </c>
-      <c r="C21" s="1">
-        <v>3695065</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>205</v>
       </c>
-      <c r="C22" s="1">
-        <v>2050000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>3255</v>
       </c>
-      <c r="C23" s="1">
-        <v>25063500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>41</v>
       </c>
-      <c r="C24" s="1">
-        <v>52275</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>1114</v>
       </c>
-      <c r="C25" s="1">
-        <v>16542900</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>648</v>
       </c>
-      <c r="C26" s="1">
-        <v>24235200</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>50</v>
       </c>
-      <c r="C27" s="1">
-        <v>610000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
-        <v>36150</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
-        <v>1963200</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>17</v>
       </c>
-      <c r="C30" s="1">
-        <v>4709000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>54</v>
       </c>
-      <c r="C31" s="1">
-        <v>19407600</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="1">
-        <v>306000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>10</v>
       </c>
-      <c r="C33" s="1">
-        <v>6900</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>70</v>
       </c>
-      <c r="C34" s="1">
-        <v>283500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>49</v>
       </c>
-      <c r="C35" s="1">
-        <v>216580</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="1">
-        <v>38300</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>30</v>
       </c>
-      <c r="C37" s="1">
-        <v>144900</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -801,7 +693,7 @@
         <v>18854</v>
       </c>
       <c r="C38" s="1">
-        <v>226860160</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/206.xlsx
+++ b/dist/document/dest/2020/10/doctors/206.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Antibio (Lactobacillus acidophilus 75mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="3">
@@ -410,295 +413,851 @@
         <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>344</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>165000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>165000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Berodual 10ml (Pressurized inhalation)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B5" s="1">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B6" s="1">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>154000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve">Calcium C1000 </v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
+      <c r="C7" s="1">
+        <v>77000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
+      <c r="C8" s="1">
+        <v>77000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B9" s="1">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>707500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>566000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1132000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B12" s="1">
-        <v>4953</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4386500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v xml:space="preserve">Calcium C1000 </v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>57900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>2409</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1980000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42550</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>2106</v>
+        <v>680</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4413200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>27</v>
+        <v>510</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3309900</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>30</v>
+        <v>510</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3309900</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>2921</v>
+        <v>2908</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18872920</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>205</v>
+        <v>350</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6930000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>3255</v>
+        <v>260</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5148000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>41</v>
+        <v>240</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4752000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>1114</v>
+        <v>1622</v>
+      </c>
+      <c r="C25" s="1">
+        <v>32115600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Pricefil (Cefprozil 500mg)</v>
+        <v>Kaleorid (Potassium 600mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>648</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7935</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Procoralan (Ivabradine 5mg)</v>
+        <v>Legalon (Silymarin 140mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>154000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="1">
+        <v>598400</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>300</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4851000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Seretide Accuhaler 50/250mcg (Salmeterol, fluticasone propionate)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B30" s="1">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2425500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B31" s="1">
-        <v>54</v>
+        <v>190</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3072300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Symbicort 60 Dos (Budesonide, formoterol)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>996</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16105320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B33" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>90200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Telfast 60mg (Fexofenadin)</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B34" s="1">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="C34" s="1">
+        <v>121770</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Transamin 500mg (Tranexamic)</v>
+        <v>Medrol 4mg (Methylprednisolone)</v>
       </c>
       <c r="B35" s="1">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5080</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Upsa - C (Vitamin C 1000mg)</v>
+        <v>Medrol 4mg (Methylprednisolone)</v>
       </c>
       <c r="B36" s="1">
         <v>10</v>
       </c>
+      <c r="C36" s="1">
+        <v>12700</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Medrol 4mg (Methylprednisolone)</v>
       </c>
       <c r="B37" s="1">
-        <v>30</v>
+        <v>170</v>
+      </c>
+      <c r="C37" s="1">
+        <v>215900</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>510</v>
+      </c>
+      <c r="C38" s="1">
+        <v>645150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>310</v>
+      </c>
+      <c r="C39" s="1">
+        <v>392150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>410</v>
+      </c>
+      <c r="C40" s="1">
+        <v>518650</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1797</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2273205</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+      </c>
+      <c r="B42" s="1">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+      </c>
+      <c r="B44" s="1">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>415</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3195500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>290</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2233000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>430</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3311000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1906</v>
+      </c>
+      <c r="C48" s="1">
+        <v>14676200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>150</v>
+      </c>
+      <c r="C50" s="1">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>31875</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>576</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8553600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4488000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4114000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4488000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>320</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11968000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Procoralan (Ivabradine 5mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>366000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Procoralan (Ivabradine 5mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Procoralan (Ivabradine 5mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1">
+        <v>244000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>654400</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>654400</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>327200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Seretide Accuhaler 50/250mcg (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1662000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3234600</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3594000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2156400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1">
+        <v>15454200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Telfast 60mg (Fexofenadin)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>20</v>
+      </c>
+      <c r="C73" s="1">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Telfast 60mg (Fexofenadin)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40</v>
+      </c>
+      <c r="C74" s="1">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Telfast 60mg (Fexofenadin)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>54</v>
+      </c>
+      <c r="C75" s="1">
+        <v>218700</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1">
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1">
+        <v>198900</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Ventoline Inh 100mcg (Salbutamol)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B38" s="1">
-        <v>18854</v>
-      </c>
-      <c r="C38" s="1">
-        <v>NaN</v>
+      <c r="B79" s="1">
+        <v>17816</v>
+      </c>
+      <c r="C79" s="1">
+        <v>213993180</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C79"/>
   </ignoredErrors>
 </worksheet>
 </file>